--- a/500all/speech_level/speeches_CHRG-114hhrg20695.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20695.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400606</t>
   </si>
   <si>
-    <t>Matt Salmon</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Salmon. The subcommittee will come to order. We meet today pursuant to notice to mark up four bipartisan measures. As your offices have been notified, it is the intent of the Chair to consider en bloc the following items, which were previously provided to members and are in your folders: House Resolution 210, Affirming and recognizing Khmer, Laotian, Hmong, and Montagnard Freedom Fighters and the people of Cambodia and Laos for their support and defense of the United States Armed Forces and freedom in Southeast Asia; included in that is Salmon amendment 148 in the nature of a substitute to H. Res. 210; House Resolution 634, Recognizing the importance of the United States-Republic of Korea-Japan trilateral relationship to counter North Korean threats and nuclear proliferation, and to ensure regional security and human rights; Salmon amendment 146 in the nature of a substitute to H. Res. 634; House Resolution 728, Supporting human rights, democracy, and the rule of law in Cambodia; Sherman amendment 42 to H. Res. 728; and H.R. 4501, the Distribution and Promotion of Rights and Knowledge Act of 2016.    Without objection, these items are considered as read and will be considered en bloc.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>400371</t>
   </si>
   <si>
-    <t>Brad Sherman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sherman. Thank you. I want to thank the chairman for holding this markup. I support each of the four bills we are considering.    H. Res. 210, affirming and recognizing the Khmer, Laotian, Hmong, and Montagnard Freedom Fighters and the people of Cambodia and Laos for their support and defense of the United States Armed Forces and freedom in Southeast Asia. It is entirely appropriate that we recognize these brave allies who fought alongside us.    Supporting human rights, democracy, and the rule of law in Cambodia, H. Res. 728. I want to thank my colleague from southern California, Mr. Lowenthal, for his leadership on this resolution and his general leadership on human rights in Southeast Asia. I met just last week with opposition leader Sam Rainsy, who is in exile because the government of Hun Sen has abused the criminal defamation law to try to silence him. You can't have a democracy when you have a criminal defamation law, probably of any kind, but certainly a criminal defamation law that is used to silence and criminalize political speech. That is why I offered my amendment that would call specifically on Cambodia to reform its defamation law and hopefully not apply it to any political speech and not provide criminal penalties for so-called defamatory statements. And we want to make it explicit that Congress takes these issues extremely seriously.    We all buy garments. Some of them are made in Cambodia. Cambodian garment manufacturers and U.S. importers have got to understand that the American people want to see improvements in human rights in Cambodia.    H. Res. 634, Recognizing the importance of the United States-Republic of Korea-Japan trilateral relationship to counter North Korean threats and nuclear proliferation, and to ensure regional security and human rights. The North Korea regime of Kim Jong-un is a great danger to international security. The Kim regime continues to work toward developing missiles and nuclear weapons. It is now trying to lengthen the reach of those missiles with the sole purpose of reaching the United States.    I am also concerned about North Korea perhaps selling nuclear weapons to Iran or others. And, of course, Iran now has many, many tens of billions of dollars that it did not have at the beginning of last year.    The guiding principle of the United States' policies in North Korea should be to exert every effort to pressure the regime in order to incentivize change. So this resolution encouraging cooperation with South Korea and Japan makes senses. I fully support the resolution.    Moving on to H.R. 4501, Distribution and Promotion of Rights and Knowledge Act of 2016. Pleased to join our chairman in introducing this resolution. It calls for a more assertive U.S. approach in trying to get independent information to the people of North Korea using electronic media in various forms as well as improving our broadcasting efforts. I want to thank the chairman for moving this important bill.    Beyond economic sanctions, short of the use of military force, one of the most effective things we can do is provide the people of North Korea with information, which this murderous regime seeks to deny them. This is one of the most effective things the international community can do to pressure the regime and hopefully move forward to a day when we can have a government in North Korea that is at peace with the world and at peace with its own people.    Information from independent sources has consistently been a destabilizing influence on totalitarian regimes, which accounts for why they go to such extreme ends to prevent that information from reaching it citizens. The United States should increase its efforts in this regard, increasing current VOA broadcasting into North Korea and supplementing this broadcasting with social media. We must adopt our diplomatic efforts to spread the American message according to the new technology of these times.    I am pleased to see the committee more forward in a bipartisan fashion, which of course has characterized its work.    And I yield back 1 second of time.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>400343</t>
   </si>
   <si>
-    <t>Dana Rohrabacher</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. I rise in support of all four of these resolutions, but in particular, I would like to thank you, Mr. Chairman, for your leadership and H. Res. 210, which underscores the important role played by Khmer, Laotian, Hmong, and Montagnards during the Vietnam war.    Now, while not in the actual military, I found myself in the Central Highlands in Vietnam in 1967. And I was working with a Montagnard tribesman, who I would--the people who you could trust with your life were Montagnard tribesmen. And at that time, there were some troubles with relying on our allies in the South Vietnamese Army, but these tribal people, the Montagnards--and by the way, ``Montagnards'' means mountain people, and ``Hmong'' and ``Laotian'' mean mountain people. And what we are really talking about is an ancient separation of various peoples of that region between mountain people and valley people. And the Montagnards were very unsophisticated but most courageous. And they were short and small in stature, but just overwhelming in courage and honor with their word. So it is good that we are honoring them today because they saved a lot of American lives. And I witnessed that firsthand.    And, number two, I would like to thank Mr. Lowenthal for his H. Res. 728. Mr. Lowenthal has, as I did when I represented his district, which he represents now, a large Cambodian population of Cambodian-Americans, and the Cambodian-Americans have come here to be free, but they look back at their homeland, and after all these years when the Vietnam war is behind us, Cambodia is still run by the same tough guy, a corrupt regime that has been in power for over 30 years.    Let me just note, in a historical note, one reason why this is an important resolution for us is that the United States Government convinced Hun Sen, the tough guy who was put into power by a Vietnamese military, they convinced him that he should actually have a free and fair election. And he had it. And there were 20,000 United Nations troops that were permitted into Cambodia for that election. This must have been about the middle 1990s. And Hun Sen lost that election. It was very--he lost the election. And he was--but the American Ambassador at the time felt that Hun Sen would not give up power and that if we tried to force it, that he would--there would be bloodshed, et cetera. And we backed down. And there was a compromise. They would have two Prime Ministers and two Presidents. That bit of a lack of willingness to stand up has condemned the people of Cambodia all of these years to live under a tyrannical and corrupt regime.    And this resolution should remind us that the people of Cambodia are still suffering, and we should not leave them out of the equation when we are trying to decide where we are going to take a stand because it was our Ambassador who made the wrong decision that has condemned them all of these years. So what this resolution should be called is ``Mr. Hun Sen, it is time to go.'' And as we pass this resolution, I hope that message will be delivered to Hun Sen: It is time for you to go, Hun Sen. It is time for the people of Cambodia to have their freedom and to cast off this corrupt regime that steals their property and enriches a small clique of Hun Sen cronies.    So, with that said, I will be supporting of the resolutions but especially those two.</t>
   </si>
   <si>
@@ -86,9 +77,6 @@
   </si>
   <si>
     <t>412521</t>
-  </si>
-  <si>
-    <t>Alan S. Lowenthal</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Lowenthal. Thank you, Mr. Chairman.    And I would like to thank you, Mr. Chairman, for bringing up my resolution, H. Res. 728, which supports human rights, democracy, and the rule of law in Cambodia.    And I would also like to thank you, Mr. Chair, for introducing this bill as the first sponsor, along with myself, along with Chairman Royce as a cosponsor, and Ranking Member Engel as a cosponsor. Congressman Chabot is also an original cosponsor. Together, Congressman Chabot and myself founded the Congressional Cambodia Caucus earlier this year to shine a light on these issues.    As has been pointed out so well by Congressman Rohrabacher, who I thank you for your comments, and also by the chair, Cambodia is a nation with enormous potential, home to a large youth population that strives to have their voices heard and their concerns listened to. However, for over 30 years, Cambodia has been ruled by the same ruling party and its leader, Prime Minister Hun Sen. Despite political violence and election irregularities, which were sanctioned by Hun Sen and his Cambodian People's Party, the opposition has continued to grow in support and will contest, first, local elections in 2017 and national elections in 2018. Last year, the Cambodian Government revived the 7-year-old defamation charges against opposition leader Sam Rainsy, expelling him from the Parliament, forcing him into self-imposed exile. That is not enough. Since then, the government has sought to arrest Kem Sokha, the deputy to Sam Rainsy and the deputy opposition leader, who now remains under house arrest, effective house arrest.    This deteriorating political situation in Cambodia demands action from the United States. That is why it is so important that we pass this resolution and show that Congress stands with the people of Cambodia and reaffirms our commitment to democracy, human rights, and the rule of law in Cambodia. Through this resolution, we call on the Government of Cambodia to, one, cease all harassment and intimidation of the Cambodian opposition; drop all politically motivated charges against opposition law makers; allow them to return to Cambodia and freely participate in the political process; and we ask the Government of Cambodia to foster an environment where democracy can thrive and flourish.    Lastly, I would like to thank Congressman Sherman for working with us to offer his amendment strengthening the resolution. This amendment adds a clause calling for reform of criminal defamation laws of the sort which are now being used to prosecute Cambodian opposition leaders, laws that are fundamentally antidemocratic.    Again, I urge my colleagues to support this resolution, and I thank you again, Mr. Chairman, and I yield back.</t>
@@ -493,11 +481,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -519,11 +505,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -543,13 +527,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -571,11 +553,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -595,13 +575,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -623,11 +601,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -647,13 +623,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -675,11 +649,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20695.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20695.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400606</t>
   </si>
   <si>
+    <t>Salmon</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Salmon. The subcommittee will come to order. We meet today pursuant to notice to mark up four bipartisan measures. As your offices have been notified, it is the intent of the Chair to consider en bloc the following items, which were previously provided to members and are in your folders: House Resolution 210, Affirming and recognizing Khmer, Laotian, Hmong, and Montagnard Freedom Fighters and the people of Cambodia and Laos for their support and defense of the United States Armed Forces and freedom in Southeast Asia; included in that is Salmon amendment 148 in the nature of a substitute to H. Res. 210; House Resolution 634, Recognizing the importance of the United States-Republic of Korea-Japan trilateral relationship to counter North Korean threats and nuclear proliferation, and to ensure regional security and human rights; Salmon amendment 146 in the nature of a substitute to H. Res. 634; House Resolution 728, Supporting human rights, democracy, and the rule of law in Cambodia; Sherman amendment 42 to H. Res. 728; and H.R. 4501, the Distribution and Promotion of Rights and Knowledge Act of 2016.    Without objection, these items are considered as read and will be considered en bloc.</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>400371</t>
   </si>
   <si>
+    <t>Sherman</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sherman. Thank you. I want to thank the chairman for holding this markup. I support each of the four bills we are considering.    H. Res. 210, affirming and recognizing the Khmer, Laotian, Hmong, and Montagnard Freedom Fighters and the people of Cambodia and Laos for their support and defense of the United States Armed Forces and freedom in Southeast Asia. It is entirely appropriate that we recognize these brave allies who fought alongside us.    Supporting human rights, democracy, and the rule of law in Cambodia, H. Res. 728. I want to thank my colleague from southern California, Mr. Lowenthal, for his leadership on this resolution and his general leadership on human rights in Southeast Asia. I met just last week with opposition leader Sam Rainsy, who is in exile because the government of Hun Sen has abused the criminal defamation law to try to silence him. You can't have a democracy when you have a criminal defamation law, probably of any kind, but certainly a criminal defamation law that is used to silence and criminalize political speech. That is why I offered my amendment that would call specifically on Cambodia to reform its defamation law and hopefully not apply it to any political speech and not provide criminal penalties for so-called defamatory statements. And we want to make it explicit that Congress takes these issues extremely seriously.    We all buy garments. Some of them are made in Cambodia. Cambodian garment manufacturers and U.S. importers have got to understand that the American people want to see improvements in human rights in Cambodia.    H. Res. 634, Recognizing the importance of the United States-Republic of Korea-Japan trilateral relationship to counter North Korean threats and nuclear proliferation, and to ensure regional security and human rights. The North Korea regime of Kim Jong-un is a great danger to international security. The Kim regime continues to work toward developing missiles and nuclear weapons. It is now trying to lengthen the reach of those missiles with the sole purpose of reaching the United States.    I am also concerned about North Korea perhaps selling nuclear weapons to Iran or others. And, of course, Iran now has many, many tens of billions of dollars that it did not have at the beginning of last year.    The guiding principle of the United States' policies in North Korea should be to exert every effort to pressure the regime in order to incentivize change. So this resolution encouraging cooperation with South Korea and Japan makes senses. I fully support the resolution.    Moving on to H.R. 4501, Distribution and Promotion of Rights and Knowledge Act of 2016. Pleased to join our chairman in introducing this resolution. It calls for a more assertive U.S. approach in trying to get independent information to the people of North Korea using electronic media in various forms as well as improving our broadcasting efforts. I want to thank the chairman for moving this important bill.    Beyond economic sanctions, short of the use of military force, one of the most effective things we can do is provide the people of North Korea with information, which this murderous regime seeks to deny them. This is one of the most effective things the international community can do to pressure the regime and hopefully move forward to a day when we can have a government in North Korea that is at peace with the world and at peace with its own people.    Information from independent sources has consistently been a destabilizing influence on totalitarian regimes, which accounts for why they go to such extreme ends to prevent that information from reaching it citizens. The United States should increase its efforts in this regard, increasing current VOA broadcasting into North Korea and supplementing this broadcasting with social media. We must adopt our diplomatic efforts to spread the American message according to the new technology of these times.    I am pleased to see the committee more forward in a bipartisan fashion, which of course has characterized its work.    And I yield back 1 second of time.</t>
   </si>
   <si>
@@ -70,6 +85,12 @@
     <t>400343</t>
   </si>
   <si>
+    <t>Rohrabacher</t>
+  </si>
+  <si>
+    <t>Dana</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. I rise in support of all four of these resolutions, but in particular, I would like to thank you, Mr. Chairman, for your leadership and H. Res. 210, which underscores the important role played by Khmer, Laotian, Hmong, and Montagnards during the Vietnam war.    Now, while not in the actual military, I found myself in the Central Highlands in Vietnam in 1967. And I was working with a Montagnard tribesman, who I would--the people who you could trust with your life were Montagnard tribesmen. And at that time, there were some troubles with relying on our allies in the South Vietnamese Army, but these tribal people, the Montagnards--and by the way, ``Montagnards'' means mountain people, and ``Hmong'' and ``Laotian'' mean mountain people. And what we are really talking about is an ancient separation of various peoples of that region between mountain people and valley people. And the Montagnards were very unsophisticated but most courageous. And they were short and small in stature, but just overwhelming in courage and honor with their word. So it is good that we are honoring them today because they saved a lot of American lives. And I witnessed that firsthand.    And, number two, I would like to thank Mr. Lowenthal for his H. Res. 728. Mr. Lowenthal has, as I did when I represented his district, which he represents now, a large Cambodian population of Cambodian-Americans, and the Cambodian-Americans have come here to be free, but they look back at their homeland, and after all these years when the Vietnam war is behind us, Cambodia is still run by the same tough guy, a corrupt regime that has been in power for over 30 years.    Let me just note, in a historical note, one reason why this is an important resolution for us is that the United States Government convinced Hun Sen, the tough guy who was put into power by a Vietnamese military, they convinced him that he should actually have a free and fair election. And he had it. And there were 20,000 United Nations troops that were permitted into Cambodia for that election. This must have been about the middle 1990s. And Hun Sen lost that election. It was very--he lost the election. And he was--but the American Ambassador at the time felt that Hun Sen would not give up power and that if we tried to force it, that he would--there would be bloodshed, et cetera. And we backed down. And there was a compromise. They would have two Prime Ministers and two Presidents. That bit of a lack of willingness to stand up has condemned the people of Cambodia all of these years to live under a tyrannical and corrupt regime.    And this resolution should remind us that the people of Cambodia are still suffering, and we should not leave them out of the equation when we are trying to decide where we are going to take a stand because it was our Ambassador who made the wrong decision that has condemned them all of these years. So what this resolution should be called is ``Mr. Hun Sen, it is time to go.'' And as we pass this resolution, I hope that message will be delivered to Hun Sen: It is time for you to go, Hun Sen. It is time for the people of Cambodia to have their freedom and to cast off this corrupt regime that steals their property and enriches a small clique of Hun Sen cronies.    So, with that said, I will be supporting of the resolutions but especially those two.</t>
   </si>
   <si>
@@ -77,6 +98,12 @@
   </si>
   <si>
     <t>412521</t>
+  </si>
+  <si>
+    <t>Lowenthal</t>
+  </si>
+  <si>
+    <t>Alan</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Lowenthal. Thank you, Mr. Chairman.    And I would like to thank you, Mr. Chairman, for bringing up my resolution, H. Res. 728, which supports human rights, democracy, and the rule of law in Cambodia.    And I would also like to thank you, Mr. Chair, for introducing this bill as the first sponsor, along with myself, along with Chairman Royce as a cosponsor, and Ranking Member Engel as a cosponsor. Congressman Chabot is also an original cosponsor. Together, Congressman Chabot and myself founded the Congressional Cambodia Caucus earlier this year to shine a light on these issues.    As has been pointed out so well by Congressman Rohrabacher, who I thank you for your comments, and also by the chair, Cambodia is a nation with enormous potential, home to a large youth population that strives to have their voices heard and their concerns listened to. However, for over 30 years, Cambodia has been ruled by the same ruling party and its leader, Prime Minister Hun Sen. Despite political violence and election irregularities, which were sanctioned by Hun Sen and his Cambodian People's Party, the opposition has continued to grow in support and will contest, first, local elections in 2017 and national elections in 2018. Last year, the Cambodian Government revived the 7-year-old defamation charges against opposition leader Sam Rainsy, expelling him from the Parliament, forcing him into self-imposed exile. That is not enough. Since then, the government has sought to arrest Kem Sokha, the deputy to Sam Rainsy and the deputy opposition leader, who now remains under house arrest, effective house arrest.    This deteriorating political situation in Cambodia demands action from the United States. That is why it is so important that we pass this resolution and show that Congress stands with the people of Cambodia and reaffirms our commitment to democracy, human rights, and the rule of law in Cambodia. Through this resolution, we call on the Government of Cambodia to, one, cease all harassment and intimidation of the Cambodian opposition; drop all politically motivated charges against opposition law makers; allow them to return to Cambodia and freely participate in the political process; and we ask the Government of Cambodia to foster an environment where democracy can thrive and flourish.    Lastly, I would like to thank Congressman Sherman for working with us to offer his amendment strengthening the resolution. This amendment adds a clause calling for reform of criminal defamation laws of the sort which are now being used to prosecute Cambodian opposition leaders, laws that are fundamentally antidemocratic.    Again, I urge my colleagues to support this resolution, and I thank you again, Mr. Chairman, and I yield back.</t>
@@ -431,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,7 +466,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,197 +488,240 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20695.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20695.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400606</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Salmon</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>400371</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Sherman</t>
   </si>
   <si>
@@ -83,6 +92,9 @@
   </si>
   <si>
     <t>400343</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Rohrabacher</t>
@@ -458,7 +470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +478,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,237 +503,264 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
